--- a/posts/04_Post/Descritivo.xlsx
+++ b/posts/04_Post/Descritivo.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\012 Blog with Quarto\Alvaro_Garcia\posts\04_Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D4CD8AC-9D90-488F-A758-573A06395394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A3EB8-261D-4475-871E-50364D3E7C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72AB3158-D8CF-4A30-9CF3-93D9F24CD1A6}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{72AB3158-D8CF-4A30-9CF3-93D9F24CD1A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Industrias" sheetId="2" r:id="rId1"/>
-    <sheet name="industrys" sheetId="1" r:id="rId2"/>
+    <sheet name="Completo EN" sheetId="2" r:id="rId1"/>
+    <sheet name="Setores" sheetId="3" r:id="rId2"/>
+    <sheet name="Industrias" sheetId="4" r:id="rId3"/>
+    <sheet name="Atividades" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="industrys" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="193">
   <si>
     <t>Waste management</t>
   </si>
@@ -164,9 +180,6 @@
     <t>Industrials</t>
   </si>
   <si>
-    <t>Machinery Manufacturing</t>
-  </si>
-  <si>
     <t>Electrical Equipment</t>
   </si>
   <si>
@@ -303,6 +316,306 @@
   </si>
   <si>
     <t>Wireless Telecommunication Services</t>
+  </si>
+  <si>
+    <t>Industriais</t>
+  </si>
+  <si>
+    <t>Materiais</t>
+  </si>
+  <si>
+    <t>Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>Utilidades</t>
+  </si>
+  <si>
+    <t>Bens de Consumo Não Duráveis</t>
+  </si>
+  <si>
+    <t>Bens de Consumo Duráveis</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Imobiliário</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>Serviços de Comunicação</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Setor PT</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Industria PT</t>
+  </si>
+  <si>
+    <t>Metais e Mineração</t>
+  </si>
+  <si>
+    <t>Serviços e Suprimentos Comerciais</t>
+  </si>
+  <si>
+    <t>Equipamentos Elétricos</t>
+  </si>
+  <si>
+    <t>Infraestrutura de Transporte</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Químicos</t>
+  </si>
+  <si>
+    <t>Construção e Engenharia</t>
+  </si>
+  <si>
+    <t>Semicondutores e Equipamentos Semicondutores</t>
+  </si>
+  <si>
+    <t>Equipamentos de Comunicação</t>
+  </si>
+  <si>
+    <t>Serviços Públicos de Energia Elétrica</t>
+  </si>
+  <si>
+    <t>Máquinas</t>
+  </si>
+  <si>
+    <t>Petróleo, Gás e Combustíveis Consumíveis</t>
+  </si>
+  <si>
+    <t>Produtos de Lazer</t>
+  </si>
+  <si>
+    <t>Gestão e Desenvolvimento Imobiliário</t>
+  </si>
+  <si>
+    <t>Produtos para Construção</t>
+  </si>
+  <si>
+    <t>Automóveis</t>
+  </si>
+  <si>
+    <t>Produtores Independentes de Energia e Energia Renovável</t>
+  </si>
+  <si>
+    <t>Varejo de Alimentos e Produtos Básicos</t>
+  </si>
+  <si>
+    <t>Farmacêuticos</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Contêineres e Embalagens</t>
+  </si>
+  <si>
+    <t>Serviços de TI</t>
+  </si>
+  <si>
+    <t>Têxteis, Vestuário e Bens de Luxo</t>
+  </si>
+  <si>
+    <t>Produtos Alimentícios</t>
+  </si>
+  <si>
+    <t>Serviços de Telecomunicações Diversificados</t>
+  </si>
+  <si>
+    <t>Mercados de Capitais</t>
+  </si>
+  <si>
+    <t>Equipamentos, Instrumentos e Componentes Eletrônicos</t>
+  </si>
+  <si>
+    <t>Bens Duráveis para o Lar</t>
+  </si>
+  <si>
+    <t>Componentes Automotivos</t>
+  </si>
+  <si>
+    <t>Hardware, Armazenamento e Periféricos de Tecnologia</t>
+  </si>
+  <si>
+    <t>Produtos Domésticos</t>
+  </si>
+  <si>
+    <t>Fundos de Investimento Imobiliário</t>
+  </si>
+  <si>
+    <t>Mídia</t>
+  </si>
+  <si>
+    <t>Produtos Pessoais</t>
+  </si>
+  <si>
+    <t>Equipamentos e Suprimentos para Saúde</t>
+  </si>
+  <si>
+    <t>Serviços de Telecomunicações Sem Fio</t>
+  </si>
+  <si>
+    <t>Classificação Geral</t>
+  </si>
+  <si>
+    <t>Primário</t>
+  </si>
+  <si>
+    <t>Terciário</t>
+  </si>
+  <si>
+    <t>Secundário</t>
+  </si>
+  <si>
+    <t>Primário e Secundário</t>
+  </si>
+  <si>
+    <t>Atividades</t>
+  </si>
+  <si>
+    <t>Atividades PT</t>
+  </si>
+  <si>
+    <t>Gestão de Resíduos</t>
+  </si>
+  <si>
+    <t>Móveis e manufatura geral</t>
+  </si>
+  <si>
+    <t>Fabricação de máquinas</t>
+  </si>
+  <si>
+    <t>Transporte rodoviário e terrestre</t>
+  </si>
+  <si>
+    <t>Fabricação de alimentos e bebidas</t>
+  </si>
+  <si>
+    <t>Serviços empresariais, engenharia e pessoais</t>
+  </si>
+  <si>
+    <t>Fabricação de semicondutores e componentes eletrônicos</t>
+  </si>
+  <si>
+    <t>Serviços de TI, exceto telecom e hospedagem</t>
+  </si>
+  <si>
+    <t>Fabricação de telefones e equipamentos de telecomunicações</t>
+  </si>
+  <si>
+    <t>Geração de energia</t>
+  </si>
+  <si>
+    <t>Gestão de resíduos</t>
+  </si>
+  <si>
+    <t>Equipamentos de transporte não rodoviário e químicos orgânicos básicos</t>
+  </si>
+  <si>
+    <t>Refinarias, petroquímicos e químicos orgânicos básicos</t>
+  </si>
+  <si>
+    <t>Imóveis e arrendamento</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos de HVAC (aquecimento, ventilação e ar condicionado)</t>
+  </si>
+  <si>
+    <t>Fabricação de automóveis e caminhões, incluindo peças</t>
+  </si>
+  <si>
+    <t>Gestão de ativos</t>
+  </si>
+  <si>
+    <t>Transmissão e distribuição de energia</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos farmacêuticos e biotecnologia</t>
+  </si>
+  <si>
+    <t>Fabricação de computadores e periféricos</t>
+  </si>
+  <si>
+    <t>Varejo, exceto alimentos e automóveis</t>
+  </si>
+  <si>
+    <t>Químicos inorgânicos básicos e sintéticos</t>
+  </si>
+  <si>
+    <t>Provedores de telecomunicações</t>
+  </si>
+  <si>
+    <t>Fabricação de têxteis e vestuário</t>
+  </si>
+  <si>
+    <t>Fabricação de eletrodomésticos e luminárias</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos de plástico e borracha</t>
+  </si>
+  <si>
+    <t>Vidro e cerâmica</t>
+  </si>
+  <si>
+    <t>Processamento de dados, serviços de hospedagem</t>
+  </si>
+  <si>
+    <t>Produtos pessoais (químicos para varejo)</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos médicos</t>
+  </si>
+  <si>
+    <t>Instrumentação e outros produtos eletrônicos</t>
+  </si>
+  <si>
+    <t>Mineração de metais e carvão</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos de transporte não rodoviário</t>
+  </si>
+  <si>
+    <t>Tratamento de água e esgoto</t>
+  </si>
+  <si>
+    <t>Lojas de alimentos</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos elétricos</t>
+  </si>
+  <si>
+    <t>Companhias de seguros</t>
+  </si>
+  <si>
+    <t>Embalagens</t>
+  </si>
+  <si>
+    <t>INDUSTRIA</t>
+  </si>
+  <si>
+    <t>SETOR</t>
+  </si>
+  <si>
+    <t>Serviços de água</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -310,10 +623,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +760,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -789,17 +1108,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1179,788 +1498,1460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D016CA89-5FF6-4516-B9AA-3B7FF1D1A596}">
-  <dimension ref="A2:J57"/>
+  <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,Industrias!$A$1:$C$39,2,)</f>
+        <v>Metais e Mineração</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(B3,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="str">
+        <f>VLOOKUP(E3,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Materiais</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços e Suprimentos Comerciais</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(B4,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" t="str">
+        <f>VLOOKUP(E4,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos Elétricos</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(B5,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(E5,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,Industrias!$A$1:$C$39,2,)</f>
+        <v>Infraestrutura de Transporte</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F6" t="str">
+        <f>VLOOKUP(E6,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,Industrias!$A$1:$C$39,2,)</f>
+        <v>Bancos</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(E7,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos Elétricos</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(E8,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,Industrias!$A$1:$C$39,2,)</f>
+        <v>Químicos</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(B9,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(E9,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Materiais</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,Industrias!$A$1:$C$39,2,)</f>
+        <v>Construção e Engenharia</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(B10,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(E10,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,Industrias!$A$1:$C$39,2,)</f>
+        <v>Semicondutores e Equipamentos Semicondutores</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(B11,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(E11,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,Industrias!$A$1:$C$39,2,)</f>
+        <v>Software</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(B12,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(E12,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços e Suprimentos Comerciais</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(B13,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(E13,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos de Comunicação</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(B14,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(E14,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(B15,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos Elétricos</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(B15,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(E15,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(B16,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços Públicos de Energia Elétrica</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(B16,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário e Secundário</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(E16,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Utilidades</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(B17,Industrias!$A$1:$C$39,2,)</f>
+        <v>Máquinas</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(B17,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(E17,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18,Industrias!$A$1:$C$39,2,)</f>
+        <v>Petróleo, Gás e Combustíveis Consumíveis</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(B18,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(E18,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Energia</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtos de Lazer</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(B19,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(E19,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,Industrias!$A$1:$C$39,2,)</f>
+        <v>Gestão e Desenvolvimento Imobiliário</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(B20,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(E20,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Imobiliário</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(B21,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtos para Construção</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(B21,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(E21,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(B22,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços de água</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(B22,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(E22,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Utilidades</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(B23,Industrias!$A$1:$C$39,2,)</f>
+        <v>Automóveis</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(B23,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(E23,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(B24,Industrias!$A$1:$C$39,2,)</f>
+        <v>Metais e Mineração</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(B24,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário</v>
+      </c>
+      <c r="E24" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F24" t="str">
+        <f>VLOOKUP(E24,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(B25,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtores Independentes de Energia e Energia Renovável</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(B25,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(E25,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Utilidades</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(B26,Industrias!$A$1:$C$39,2,)</f>
+        <v>Varejo de Alimentos e Produtos Básicos</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(B26,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(E26,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Duráveis</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(B27,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços Públicos de Energia Elétrica</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(B27,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário e Secundário</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(E27,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Utilidades</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(B28,Industrias!$A$1:$C$39,2,)</f>
+        <v>Máquinas</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(B28,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F28" t="str">
+        <f>VLOOKUP(E28,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Industriais</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(B29,Industrias!$A$1:$C$39,2,)</f>
+        <v>Farmacêuticos</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(B29,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(E29,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Saúde</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP(B30,Industrias!$A$1:$C$39,2,)</f>
+        <v>Seguros</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(B30,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E30" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F30" t="str">
+        <f>VLOOKUP(E30,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP(B31,Industrias!$A$1:$C$39,2,)</f>
+        <v>Contêineres e Embalagens</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(B31,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(E31,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Materiais</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP(B32,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços de TI</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(B32,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(E32,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP(B33,Industrias!$A$1:$C$39,2,)</f>
+        <v>Automóveis</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(B33,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(E33,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(B34,Industrias!$A$1:$C$39,2,)</f>
+        <v>Têxteis, Vestuário e Bens de Luxo</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(B34,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(E34,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(B35,Industrias!$A$1:$C$39,2,)</f>
+        <v>Químicos</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(B35,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(E35,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Materiais</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP(B36,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtos Alimentícios</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(B36,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(E36,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Duráveis</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP(B37,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços de Telecomunicações Diversificados</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(B37,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(E37,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Serviços de Comunicação</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(B38,Industrias!$A$1:$C$39,2,)</f>
+        <v>Mercados de Capitais</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(B38,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(E38,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(B39,Industrias!$A$1:$C$39,2,)</f>
+        <v>Têxteis, Vestuário e Bens de Luxo</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(B39,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(E39,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(B40,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos, Instrumentos e Componentes Eletrônicos</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(B40,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(E40,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="I40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C41" t="str">
+        <f>VLOOKUP(B41,Industrias!$A$1:$C$39,2,)</f>
+        <v>Químicos</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(B41,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E41" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F41" t="str">
+        <f>VLOOKUP(E41,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Materiais</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP(B42,Industrias!$A$1:$C$39,2,)</f>
+        <v>Bens Duráveis para o Lar</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(B42,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(E42,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP(B43,Industrias!$A$1:$C$39,2,)</f>
+        <v>Componentes Automotivos</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(B43,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(E43,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Não Duráveis</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C44" t="str">
+        <f>VLOOKUP(B44,Industrias!$A$1:$C$39,2,)</f>
+        <v>Semicondutores e Equipamentos Semicondutores</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(B44,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E44" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="F44" t="str">
+        <f>VLOOKUP(E44,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="str">
+        <f>VLOOKUP(B45,Industrias!$A$1:$C$39,2,)</f>
+        <v>Hardware, Armazenamento e Periféricos de Tecnologia</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(B45,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E45" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F45" t="str">
+        <f>VLOOKUP(E45,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP(B46,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtos Domésticos</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(B46,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(E46,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Duráveis</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP(B47,Industrias!$A$1:$C$39,2,)</f>
+        <v>Fundos de Investimento Imobiliário</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(B47,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(E47,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP(B48,Industrias!$A$1:$C$39,2,)</f>
+        <v>Fundos de Investimento Imobiliário</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(B48,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(E48,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Imobiliário</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(B49,Industrias!$A$1:$C$39,2,)</f>
+        <v>Hardware, Armazenamento e Periféricos de Tecnologia</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(B49,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(E49,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(B50,Industrias!$A$1:$C$39,2,)</f>
+        <v>Mídia</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(B50,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(E50,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Serviços de Comunicação</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(B51,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtos Pessoais</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(B51,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(E51,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Duráveis</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP(B52,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos e Suprimentos para Saúde</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(B52,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(E52,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Saúde</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(B53,Industrias!$A$1:$C$39,2,)</f>
+        <v>Serviços de Telecomunicações Sem Fio</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(B53,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(E53,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Serviços de Comunicação</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(B54,Industrias!$A$1:$C$39,2,)</f>
+        <v>Produtos Domésticos</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(B54,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(E54,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Bens de Consumo Duráveis</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(B55,Industrias!$A$1:$C$39,2,)</f>
+        <v>Metais e Mineração</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(B55,Industrias!$A$1:$C$39,3,)</f>
+        <v>Primário</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(E55,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Materiais</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="C56" t="str">
+        <f>VLOOKUP(B56,Industrias!$A$1:$C$39,2,)</f>
+        <v>Mercados de Capitais</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(B56,Industrias!$A$1:$C$39,3,)</f>
+        <v>Terciário</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(E56,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Financeiro</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(B57,Industrias!$A$1:$C$39,2,)</f>
+        <v>Equipamentos e Suprimentos para Saúde</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(B57,Industrias!$A$1:$C$39,3,)</f>
+        <v>Secundário</v>
+      </c>
+      <c r="E57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>75</v>
+      <c r="F57" t="str">
+        <f>VLOOKUP(E57,Setores!$A$1:$B$12,2,FALSE)</f>
+        <v>Saúde</v>
       </c>
     </row>
   </sheetData>
@@ -1969,6 +2960,1030 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D63B85B-A5D7-4DCE-BBCA-2A68A18F532B}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24F9B6C-CE7D-4F19-9AF9-7D13239C89CA}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8A3A-1D78-46BF-839A-98C141FE8FF5}">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92728ADD-8A87-44AC-BF56-18E746EFF4FA}">
   <dimension ref="A1:A39"/>
   <sheetViews>
